--- a/product_ranking_mink_eyelash.xlsx
+++ b/product_ranking_mink_eyelash.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Market Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\Market Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="106">
   <si>
     <t>2018-10-10 13:58:08</t>
   </si>
@@ -31,6 +31,9 @@
     <t>2018-10-09 20:42:37</t>
   </si>
   <si>
+    <t>own brand mink fur lashes eyelash natural wholesale vendor cruelty free real mink strip eyelash private label 3d mink eyelashes</t>
+  </si>
+  <si>
     <t>own brand mink lashes wholesale vendor cruelty free real mink strip eyelash private label 3d mink eyelashes</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>eyelash</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>4-21</t>
   </si>
   <si>
@@ -79,12 +85,12 @@
     <t>private label eyelash</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>mink lash</t>
   </si>
   <si>
+    <t>3-27</t>
+  </si>
+  <si>
     <t>3-9</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>wholesale mink eyelash</t>
   </si>
   <si>
+    <t>3-14</t>
+  </si>
+  <si>
     <t>3-1</t>
   </si>
   <si>
@@ -115,9 +124,6 @@
     <t>3-13</t>
   </si>
   <si>
-    <t>3-14</t>
-  </si>
-  <si>
     <t>eyelash mink</t>
   </si>
   <si>
@@ -139,9 +145,6 @@
     <t>3-30</t>
   </si>
   <si>
-    <t>3-27</t>
-  </si>
-  <si>
     <t>own brand eyelash</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>mink eyelash 3d</t>
   </si>
   <si>
+    <t>3-24</t>
+  </si>
+  <si>
     <t>3-10</t>
   </si>
   <si>
@@ -202,9 +208,6 @@
     <t>eyelash 3d</t>
   </si>
   <si>
-    <t>3-24</t>
-  </si>
-  <si>
     <t>eyelash mink 3d mink</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>mink strip eyelash</t>
   </si>
   <si>
+    <t>2-32</t>
+  </si>
+  <si>
     <t>2-23</t>
   </si>
   <si>
@@ -244,12 +250,15 @@
     <t>2-31</t>
   </si>
   <si>
-    <t>2-32</t>
+    <t>natural lashes</t>
   </si>
   <si>
     <t>eyelash mink private label</t>
   </si>
   <si>
+    <t>custom lashes packaging mink lashes</t>
+  </si>
+  <si>
     <t>free sample mink eyelash</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
     <t>1-28</t>
   </si>
   <si>
+    <t>custom mink lashes</t>
+  </si>
+  <si>
     <t>mink eyelash wholsale</t>
   </si>
   <si>
@@ -271,6 +283,9 @@
     <t>mink eyelash wholesale</t>
   </si>
   <si>
+    <t>mink lashes vendor</t>
+  </si>
+  <si>
     <t>private label mink lash</t>
   </si>
   <si>
@@ -286,6 +301,9 @@
     <t>2-13</t>
   </si>
   <si>
+    <t>false mink eyelashes</t>
+  </si>
+  <si>
     <t>false eyelash mink</t>
   </si>
   <si>
@@ -320,14 +338,6 @@
   </si>
   <si>
     <t>cruelty_free mink eyelash</t>
-  </si>
-  <si>
-    <t>own brand 3d mink eyelashes private false label eyelash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>own brand mink fur lashes eyelash natural wholesale vendor cruelty free real mink strip eyelash private label 3d mink eyelashes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -946,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,18 +1048,18 @@
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="19">
-        <f>LEN(E3)</f>
-        <v>127</v>
+      <c r="D3" s="19" t="e">
+        <f>LEN(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1076,13 +1086,13 @@
       <c r="C4" s="22"/>
       <c r="D4" s="19"/>
       <c r="E4" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -1109,13 +1119,13 @@
       <c r="C5" s="22"/>
       <c r="D5" s="51"/>
       <c r="E5" s="13" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -1142,13 +1152,13 @@
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
       <c r="E6" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -1180,16 +1190,16 @@
         <v>4248</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
@@ -1222,16 +1232,16 @@
         <v>3829</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -1264,16 +1274,16 @@
         <v>2946</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
@@ -1306,13 +1316,13 @@
         <v>2268</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="34"/>
@@ -1346,16 +1356,16 @@
         <v>1879</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
@@ -1388,13 +1398,13 @@
         <v>1654</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="34"/>
@@ -1428,16 +1438,16 @@
         <v>1163</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -1470,16 +1480,16 @@
         <v>1093</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
@@ -1512,16 +1522,16 @@
         <v>1057</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
@@ -1554,16 +1564,16 @@
         <v>949</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>31</v>
-      </c>
       <c r="G16" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -1596,16 +1606,16 @@
         <v>939</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -1638,13 +1648,13 @@
         <v>786</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="34"/>
@@ -1678,16 +1688,16 @@
         <v>782</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
@@ -1720,16 +1730,16 @@
         <v>726</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
@@ -1762,13 +1772,13 @@
         <v>643</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="34"/>
@@ -1802,13 +1812,13 @@
         <v>620</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="34"/>
@@ -1842,13 +1852,13 @@
         <v>577</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="34"/>
@@ -1882,16 +1892,16 @@
         <v>556</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
@@ -1924,13 +1934,13 @@
         <v>457</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="34"/>
@@ -1964,13 +1974,13 @@
         <v>456</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="34"/>
@@ -2004,16 +2014,16 @@
         <v>447</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
@@ -2046,13 +2056,13 @@
         <v>431</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="34"/>
@@ -2086,13 +2096,13 @@
         <v>417</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="34"/>
@@ -2126,16 +2136,16 @@
         <v>411</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
@@ -2168,13 +2178,13 @@
         <v>403</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="34"/>
@@ -2208,16 +2218,16 @@
         <v>397</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
@@ -2250,13 +2260,13 @@
         <v>369</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G33" s="35"/>
       <c r="H33" s="34"/>
@@ -2290,16 +2300,16 @@
         <v>327</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
@@ -2332,13 +2342,13 @@
         <v>324</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="34"/>
@@ -2372,13 +2382,13 @@
         <v>317</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G36" s="35"/>
       <c r="H36" s="34"/>
@@ -2412,13 +2422,13 @@
         <v>311</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G37" s="35"/>
       <c r="H37" s="34"/>
@@ -2452,16 +2462,16 @@
         <v>304</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -2494,16 +2504,16 @@
         <v>277</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
@@ -2536,16 +2546,16 @@
         <v>254</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
@@ -2578,16 +2588,16 @@
         <v>252</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
@@ -2609,68 +2619,62 @@
       <c r="Y41" s="49"/>
       <c r="Z41" s="10"/>
     </row>
-    <row r="42" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="42">
+    <row r="42" spans="1:26" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="32">
+        <v>112</v>
+      </c>
+      <c r="B42" s="32">
+        <v>4</v>
+      </c>
+      <c r="C42" s="32">
+        <v>248</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="42">
-        <v>244</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="49"/>
-      <c r="Z42" s="10"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="40"/>
     </row>
     <row r="43" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="42">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B43" s="42">
         <v>1</v>
       </c>
       <c r="C43" s="42">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="45" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" s="45"/>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
       <c r="J43" s="44"/>
@@ -2689,27 +2693,23 @@
       <c r="W43" s="48"/>
       <c r="X43" s="49"/>
       <c r="Y43" s="49"/>
-      <c r="Z43" s="50"/>
+      <c r="Z43" s="10"/>
     </row>
     <row r="44" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="42">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="B44" s="42">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C44" s="42">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>19</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
       <c r="G44" s="45"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
@@ -2729,29 +2729,29 @@
       <c r="W44" s="48"/>
       <c r="X44" s="49"/>
       <c r="Y44" s="49"/>
-      <c r="Z44" s="50"/>
+      <c r="Z44" s="10"/>
     </row>
     <row r="45" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="42">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="B45" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C45" s="42">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
@@ -2775,26 +2775,24 @@
     </row>
     <row r="46" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="42">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B46" s="42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C46" s="42">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="45" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" s="45"/>
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
       <c r="J46" s="44"/>
@@ -2817,25 +2815,25 @@
     </row>
     <row r="47" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="42">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B47" s="42">
         <v>6</v>
       </c>
       <c r="C47" s="42">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>81</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
@@ -2859,26 +2857,20 @@
     </row>
     <row r="48" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="42">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B48" s="42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C48" s="42">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>16</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
       <c r="J48" s="44"/>
@@ -2901,24 +2893,26 @@
     </row>
     <row r="49" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="42">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="B49" s="42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C49" s="42">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="H49" s="44"/>
       <c r="I49" s="44"/>
       <c r="J49" s="44"/>
@@ -2941,24 +2935,26 @@
     </row>
     <row r="50" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="42">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="B50" s="42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C50" s="42">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D50" s="43" t="s">
         <v>85</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="H50" s="44"/>
       <c r="I50" s="44"/>
       <c r="J50" s="44"/>
@@ -2981,25 +2977,25 @@
     </row>
     <row r="51" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="42">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B51" s="42">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C51" s="42">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="D51" s="43" t="s">
         <v>86</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F51" s="43" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="45" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
@@ -3023,26 +3019,20 @@
     </row>
     <row r="52" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="42">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B52" s="42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="42">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>19</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="44"/>
       <c r="I52" s="44"/>
       <c r="J52" s="44"/>
@@ -3065,26 +3055,24 @@
     </row>
     <row r="53" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="42">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="B53" s="42">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C53" s="42">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D53" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E53" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="45" t="s">
-        <v>19</v>
-      </c>
+      <c r="G53" s="45"/>
       <c r="H53" s="44"/>
       <c r="I53" s="44"/>
       <c r="J53" s="44"/>
@@ -3103,26 +3091,26 @@
       <c r="W53" s="48"/>
       <c r="X53" s="49"/>
       <c r="Y53" s="49"/>
-      <c r="Z53" s="10"/>
+      <c r="Z53" s="50"/>
     </row>
     <row r="54" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23">
+      <c r="A54" s="42">
+        <v>21</v>
+      </c>
+      <c r="B54" s="42">
+        <v>1</v>
+      </c>
+      <c r="C54" s="42">
+        <v>164</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="43" t="s">
         <v>82</v>
-      </c>
-      <c r="B54" s="23">
-        <v>3</v>
-      </c>
-      <c r="C54" s="23">
-        <v>136</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>19</v>
       </c>
       <c r="G54" s="45"/>
       <c r="H54" s="44"/>
@@ -3143,28 +3131,30 @@
       <c r="W54" s="48"/>
       <c r="X54" s="49"/>
       <c r="Y54" s="49"/>
-      <c r="Z54" s="10"/>
+      <c r="Z54" s="50"/>
     </row>
     <row r="55" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="42">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B55" s="42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="42">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
       <c r="J55" s="44"/>
@@ -3183,16 +3173,24 @@
       <c r="W55" s="48"/>
       <c r="X55" s="49"/>
       <c r="Y55" s="49"/>
-      <c r="Z55" s="10"/>
+      <c r="Z55" s="50"/>
     </row>
     <row r="56" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="43"/>
+      <c r="A56" s="42">
+        <v>152</v>
+      </c>
+      <c r="B56" s="42">
+        <v>3</v>
+      </c>
+      <c r="C56" s="42">
+        <v>152</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>93</v>
+      </c>
       <c r="E56" s="43"/>
       <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
       <c r="J56" s="44"/>
@@ -3211,16 +3209,30 @@
       <c r="W56" s="48"/>
       <c r="X56" s="49"/>
       <c r="Y56" s="49"/>
-      <c r="Z56" s="10"/>
+      <c r="Z56" s="50"/>
     </row>
     <row r="57" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
+      <c r="A57" s="42">
+        <v>95</v>
+      </c>
+      <c r="B57" s="42">
+        <v>4</v>
+      </c>
+      <c r="C57" s="42">
+        <v>143</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
       <c r="J57" s="44"/>
@@ -3239,16 +3251,30 @@
       <c r="W57" s="48"/>
       <c r="X57" s="49"/>
       <c r="Y57" s="49"/>
-      <c r="Z57" s="10"/>
+      <c r="Z57" s="50"/>
     </row>
     <row r="58" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="44"/>
+      <c r="A58" s="42">
+        <v>58</v>
+      </c>
+      <c r="B58" s="42">
+        <v>3</v>
+      </c>
+      <c r="C58" s="42">
+        <v>140</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="H58" s="44"/>
       <c r="I58" s="44"/>
       <c r="J58" s="44"/>
@@ -3270,13 +3296,25 @@
       <c r="Z58" s="10"/>
     </row>
     <row r="59" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="44"/>
+      <c r="A59" s="23">
+        <v>82</v>
+      </c>
+      <c r="B59" s="23">
+        <v>3</v>
+      </c>
+      <c r="C59" s="23">
+        <v>136</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="45"/>
       <c r="H59" s="44"/>
       <c r="I59" s="44"/>
       <c r="J59" s="44"/>
@@ -3298,13 +3336,25 @@
       <c r="Z59" s="10"/>
     </row>
     <row r="60" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="44"/>
+      <c r="A60" s="42">
+        <v>87</v>
+      </c>
+      <c r="B60" s="42">
+        <v>3</v>
+      </c>
+      <c r="C60" s="42">
+        <v>136</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="45"/>
       <c r="H60" s="44"/>
       <c r="I60" s="44"/>
       <c r="J60" s="44"/>
@@ -3389,19 +3439,19 @@
       <c r="E63" s="43"/>
       <c r="F63" s="43"/>
       <c r="G63" s="44"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -3410,26 +3460,26 @@
       <c r="Z63" s="10"/>
     </row>
     <row r="64" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="47"/>
-      <c r="S64" s="47"/>
-      <c r="T64" s="47"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
       <c r="U64" s="47"/>
       <c r="V64" s="47"/>
       <c r="W64" s="48"/>
@@ -3437,24 +3487,27 @@
       <c r="Y64" s="49"/>
       <c r="Z64" s="10"/>
     </row>
-    <row r="65" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
+    <row r="65" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
       <c r="U65" s="47"/>
       <c r="V65" s="47"/>
       <c r="W65" s="48"/>
@@ -3462,24 +3515,27 @@
       <c r="Y65" s="49"/>
       <c r="Z65" s="10"/>
     </row>
-    <row r="66" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
+    <row r="66" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
       <c r="U66" s="47"/>
       <c r="V66" s="47"/>
       <c r="W66" s="48"/>
@@ -3487,24 +3543,27 @@
       <c r="Y66" s="49"/>
       <c r="Z66" s="10"/>
     </row>
-    <row r="67" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
+    <row r="67" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
       <c r="U67" s="47"/>
       <c r="V67" s="47"/>
       <c r="W67" s="48"/>
@@ -3512,51 +3571,182 @@
       <c r="Y67" s="49"/>
       <c r="Z67" s="10"/>
     </row>
-    <row r="68" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="6"/>
-    </row>
-    <row r="69" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="Q70" s="46"/>
-    </row>
-    <row r="72" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="Q72" s="9"/>
-    </row>
-    <row r="73" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="Q73" s="9"/>
-    </row>
-    <row r="74" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="Q74" s="9"/>
-    </row>
-    <row r="75" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="Q75" s="9"/>
+    <row r="68" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="48"/>
+      <c r="X68" s="49"/>
+      <c r="Y68" s="49"/>
+      <c r="Z68" s="10"/>
+    </row>
+    <row r="69" spans="1:26" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="10"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="48"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="10"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="48"/>
+      <c r="X71" s="49"/>
+      <c r="Y71" s="49"/>
+      <c r="Z71" s="10"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="48"/>
+      <c r="X72" s="49"/>
+      <c r="Y72" s="49"/>
+      <c r="Z72" s="10"/>
+    </row>
+    <row r="73" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q75" s="46"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q77" s="9"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q78" s="9"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q79" s="9"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q80" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3593,10 +3783,10 @@
         <v>4248</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I1">
         <f>LEN(H1)</f>
@@ -3614,10 +3804,10 @@
         <v>2946</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -3631,10 +3821,10 @@
         <v>1879</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -3648,10 +3838,10 @@
         <v>1163</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -3665,7 +3855,7 @@
         <v>1093</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -3679,7 +3869,7 @@
         <v>1057</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -3693,7 +3883,7 @@
         <v>949</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -3707,7 +3897,7 @@
         <v>939</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -3721,7 +3911,7 @@
         <v>782</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -3735,7 +3925,7 @@
         <v>726</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -3749,7 +3939,7 @@
         <v>556</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -3763,7 +3953,7 @@
         <v>447</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -3777,7 +3967,7 @@
         <v>411</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -3791,7 +3981,7 @@
         <v>397</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -3805,7 +3995,7 @@
         <v>327</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -3819,7 +4009,7 @@
         <v>304</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -3833,7 +4023,7 @@
         <v>277</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -3847,7 +4037,7 @@
         <v>254</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -3861,7 +4051,7 @@
         <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -3875,7 +4065,7 @@
         <v>232</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -3889,7 +4079,7 @@
         <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -3903,7 +4093,7 @@
         <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3917,7 +4107,7 @@
         <v>199</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -3931,7 +4121,7 @@
         <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -3945,7 +4135,7 @@
         <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -3959,7 +4149,7 @@
         <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -3973,7 +4163,7 @@
         <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
